--- a/order-add-in.xlsx
+++ b/order-add-in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\BisleriumCafeBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07471A29-9966-4E96-86A8-12B63634F6FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DD1381-7F18-4A6A-B645-79EC7F0A3A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
@@ -397,10 +397,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -408,9 +408,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0">
         <v>2</v>
       </c>
     </row>
